--- a/LineFollowingBot/Documentation/RunLog.xlsx
+++ b/LineFollowingBot/Documentation/RunLog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="298">
   <si>
     <t>Time for Lap 2 is 8236</t>
   </si>
@@ -907,6 +907,9 @@
   </si>
   <si>
     <t>Error for lap 6 is 3661</t>
+  </si>
+  <si>
+    <t>Score</t>
   </si>
 </sst>
 </file>
@@ -952,53 +955,53 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,10 +1009,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1017,11 +1023,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1326,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -3839,581 +3845,694 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="G1" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4447</v>
+      </c>
+      <c r="F2" s="5">
+        <v>8.2739999999999991</v>
+      </c>
+      <c r="G2" s="6">
+        <f>0.5*F2*1000+0.5*E2</f>
+        <v>6360.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4600.2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8.2590000000000003</v>
+      </c>
+      <c r="G3" s="6">
+        <f>0.5*F3*1000+0.5*E3</f>
+        <v>6429.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>40</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4109</v>
+      </c>
+      <c r="F4" s="5">
+        <v>8.3089999999999993</v>
+      </c>
+      <c r="G4" s="6">
+        <f>0.5*F4*1000+0.5*E4</f>
+        <v>6209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3917</v>
+      </c>
+      <c r="F5" s="5">
+        <v>8.173</v>
+      </c>
+      <c r="G5" s="6">
+        <f>0.5*F5*1000+0.5*E5</f>
+        <v>6045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>40</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="4">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3814.8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>8.202</v>
+      </c>
+      <c r="G6" s="6">
+        <f>0.5*F6*1000+0.5*E6</f>
+        <v>6008.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>4021.8</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="G7" s="6">
+        <f>0.5*F7*1000+0.5*E7</f>
+        <v>6115.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3372.6</v>
+      </c>
+      <c r="F8" s="5">
+        <v>7.9640000000000004</v>
+      </c>
+      <c r="G8" s="6">
+        <f>0.5*F8*1000+0.5*E8</f>
+        <v>5668.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3552</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G9" s="6">
+        <f>0.5*F9*1000+0.5*E9</f>
+        <v>5926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>15</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3468.8</v>
+      </c>
+      <c r="F10" s="5">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="G10" s="6">
+        <f>0.5*F10*1000+0.5*E10</f>
+        <v>5924.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3579.4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>7.9640000000000004</v>
+      </c>
+      <c r="G11" s="6">
+        <f>0.5*F11*1000+0.5*E11</f>
+        <v>5771.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3712</v>
+      </c>
+      <c r="F12" s="5">
+        <v>8.3079999999999998</v>
+      </c>
+      <c r="G12" s="6">
+        <f>0.5*F12*1000+0.5*E12</f>
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>15</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3711</v>
+      </c>
+      <c r="F13" s="5">
+        <v>8.4160000000000004</v>
+      </c>
+      <c r="G13" s="6">
+        <f>0.5*F13*1000+0.5*E13</f>
+        <v>6063.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3631.6</v>
+      </c>
+      <c r="F14" s="5">
+        <v>8.2919999999999998</v>
+      </c>
+      <c r="G14" s="6">
+        <f>0.5*F14*1000+0.5*E14</f>
+        <v>5961.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3414.4</v>
+      </c>
+      <c r="F15" s="5">
+        <v>8.3320000000000007</v>
+      </c>
+      <c r="G15" s="6">
+        <f>0.5*F15*1000+0.5*E15</f>
+        <v>5873.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="4">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3503</v>
+      </c>
+      <c r="F16" s="5">
+        <v>8.3659999999999997</v>
+      </c>
+      <c r="G16" s="6">
+        <f>0.5*F16*1000+0.5*E16</f>
+        <v>5934.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3294</v>
+      </c>
+      <c r="F17" s="5">
+        <v>8.3109999999999999</v>
+      </c>
+      <c r="G17" s="6">
+        <f>0.5*F17*1000+0.5*E17</f>
+        <v>5802.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3270.2</v>
+      </c>
+      <c r="F18" s="5">
+        <v>8.4870000000000001</v>
+      </c>
+      <c r="G18" s="6">
+        <f>0.5*F18*1000+0.5*E18</f>
+        <v>5878.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>50</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>15</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3819.8</v>
+      </c>
+      <c r="F19" s="5">
+        <v>8.5980000000000008</v>
+      </c>
+      <c r="G19" s="6">
+        <f>0.5*F19*1000+0.5*E19</f>
+        <v>6208.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>60</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3498.6</v>
+      </c>
+      <c r="F20" s="5">
+        <v>8.2929999999999993</v>
+      </c>
+      <c r="G20" s="6">
+        <f>0.5*F20*1000+0.5*E20</f>
+        <v>5895.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3812.4</v>
+      </c>
+      <c r="F21" s="5">
+        <v>8.6180000000000003</v>
+      </c>
+      <c r="G21" s="6">
+        <f>0.5*F21*1000+0.5*E21</f>
+        <v>6215.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>15</v>
+      </c>
+      <c r="E22" s="5">
+        <v>3963.6</v>
+      </c>
+      <c r="F22" s="5">
+        <v>8.4879999999999995</v>
+      </c>
+      <c r="G22" s="6">
+        <f>0.5*F22*1000+0.5*E22</f>
+        <v>6225.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B23" s="4">
         <v>60</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C23" s="4">
         <v>0.05</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E23" s="5">
         <v>3062</v>
       </c>
-      <c r="F2" s="1">
-        <v>8.1974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="F23" s="5">
+        <v>8.1969999999999992</v>
+      </c>
+      <c r="G23" s="6">
+        <f>0.5*F23*1000+0.5*E23</f>
+        <v>5629.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D24" s="4">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3613.2</v>
+      </c>
+      <c r="F24" s="5">
+        <v>8.7309999999999999</v>
+      </c>
+      <c r="G24" s="6">
+        <f>0.5*F24*1000+0.5*E24</f>
+        <v>6172.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="D25" s="4">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5">
+        <v>3676</v>
+      </c>
+      <c r="F25" s="5">
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="G25" s="6">
+        <f>0.5*F25*1000+0.5*E25</f>
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>60</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3498.6</v>
+      </c>
+      <c r="F26" s="5">
+        <v>8.2929999999999993</v>
+      </c>
+      <c r="G26" s="6">
+        <f>0.5*F26*1000+0.5*E26</f>
+        <v>5895.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B27" s="4">
         <v>60</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C27" s="4">
         <v>0.1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D27" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E27" s="5">
         <v>3252.6</v>
       </c>
-      <c r="F3" s="1">
-        <v>8.4497999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3">
-        <v>50</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="F27" s="5">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="G27" s="6">
+        <f>0.5*F27*1000+0.5*E27</f>
+        <v>5851.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>60</v>
+      </c>
+      <c r="C28" s="4">
         <v>0.1</v>
       </c>
-      <c r="D4" s="3">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3270.2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8.4649999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3">
-        <v>60</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D28" s="4">
         <v>15</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E28" s="5">
         <v>3287.2</v>
       </c>
-      <c r="F5" s="1">
-        <v>8.5632000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3">
-        <v>50</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3294</v>
-      </c>
-      <c r="F6" s="1">
-        <v>8.3114000000000008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>40</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3372.6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>7.9638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3">
-        <v>50</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3414.4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>8.3315999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>15</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3468.8</v>
-      </c>
-      <c r="F9" s="1">
-        <v>8.3795999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3">
-        <v>60</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3498.6</v>
-      </c>
-      <c r="F10" s="1">
-        <v>8.2932000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>25</v>
-      </c>
-      <c r="B11" s="3">
-        <v>60</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3498.6</v>
-      </c>
-      <c r="F11" s="1">
-        <v>8.2932000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3">
-        <v>50</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D12" s="3">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3503</v>
-      </c>
-      <c r="F12" s="1">
-        <v>8.3656000000000006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3">
-        <v>40</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3552</v>
-      </c>
-      <c r="F13" s="1">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3579.4</v>
-      </c>
-      <c r="F14" s="1">
-        <v>7.9638</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" s="3">
-        <v>60</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D15" s="3">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3613.2</v>
-      </c>
-      <c r="F15" s="1">
-        <v>8.7316000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>13</v>
-      </c>
-      <c r="B16" s="3">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3631.6</v>
-      </c>
-      <c r="F16" s="1">
-        <v>8.2924000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3">
-        <v>60</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D17" s="3">
-        <v>15</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3676</v>
-      </c>
-      <c r="F17" s="1">
-        <v>8.7463999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3">
-        <v>50</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>15</v>
-      </c>
-      <c r="E18" s="1">
-        <v>3711</v>
-      </c>
-      <c r="F18" s="1">
-        <v>8.4161999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3">
-        <v>50</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1">
-        <v>3712</v>
-      </c>
-      <c r="F19" s="1">
-        <v>8.3084000000000007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3">
-        <v>60</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3812.4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>8.6183999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>5</v>
-      </c>
-      <c r="B21" s="3">
-        <v>40</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D21" s="3">
-        <v>10</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3814.8</v>
-      </c>
-      <c r="F21" s="1">
-        <v>8.2021999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3917</v>
-      </c>
-      <c r="F22" s="1">
-        <v>8.1725999999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3">
-        <v>60</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1">
-        <v>3963.6</v>
-      </c>
-      <c r="F23" s="1">
-        <v>8.4884000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>6</v>
-      </c>
-      <c r="B24" s="3">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="D24" s="3">
-        <v>15</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4021.8</v>
-      </c>
-      <c r="F24" s="1">
-        <v>8.2102000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3">
-        <v>40</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>15</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4109</v>
-      </c>
-      <c r="F25" s="1">
-        <v>8.3081999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4447</v>
-      </c>
-      <c r="F26" s="1">
-        <v>8.2739999999999991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3">
-        <v>40</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>10</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4600.2</v>
-      </c>
-      <c r="F27" s="1">
-        <v>8.2590000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>18</v>
-      </c>
-      <c r="B28" s="3">
-        <v>50</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="D28" s="3">
-        <v>15</v>
-      </c>
-      <c r="E28">
-        <f>F27</f>
-        <v>8.2590000000000003</v>
-      </c>
-      <c r="F28">
-        <f>E27</f>
-        <v>4600.2</v>
+      <c r="F28" s="5">
+        <v>8.5630000000000006</v>
+      </c>
+      <c r="G28" s="6">
+        <f>0.5*F28*1000+0.5*E28</f>
+        <v>5925.1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F28">
-    <sortCondition ref="E2"/>
+  <sortState ref="A2:G28">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/LineFollowingBot/Documentation/RunLog.xlsx
+++ b/LineFollowingBot/Documentation/RunLog.xlsx
@@ -3847,8 +3847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3881,295 +3881,295 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>4447</v>
+        <v>3062</v>
       </c>
       <c r="F2" s="5">
-        <v>8.2739999999999991</v>
+        <v>8.1969999999999992</v>
       </c>
       <c r="G2" s="6">
         <f>0.5*F2*1000+0.5*E2</f>
-        <v>6360.5</v>
+        <v>5629.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>40</v>
       </c>
       <c r="C3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
       <c r="E3" s="5">
-        <v>4600.2</v>
+        <v>3372.6</v>
       </c>
       <c r="F3" s="5">
-        <v>8.2590000000000003</v>
+        <v>7.9640000000000004</v>
       </c>
       <c r="G3" s="6">
         <f>0.5*F3*1000+0.5*E3</f>
-        <v>6429.6</v>
+        <v>5668.3</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>4109</v>
+        <v>3579.4</v>
       </c>
       <c r="F4" s="5">
-        <v>8.3089999999999993</v>
+        <v>7.9640000000000004</v>
       </c>
       <c r="G4" s="6">
         <f>0.5*F4*1000+0.5*E4</f>
-        <v>6209</v>
+        <v>5771.7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D5" s="4">
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>3917</v>
+        <v>3294</v>
       </c>
       <c r="F5" s="5">
-        <v>8.173</v>
+        <v>8.3109999999999999</v>
       </c>
       <c r="G5" s="6">
         <f>0.5*F5*1000+0.5*E5</f>
-        <v>6045</v>
+        <v>5802.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="4">
         <v>10</v>
       </c>
       <c r="E6" s="5">
-        <v>3814.8</v>
+        <v>3252.6</v>
       </c>
       <c r="F6" s="5">
-        <v>8.202</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="G6" s="6">
         <f>0.5*F6*1000+0.5*E6</f>
-        <v>6008.4</v>
+        <v>5851.3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4">
         <v>0.05</v>
       </c>
       <c r="D7" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7" s="5">
-        <v>4021.8</v>
+        <v>3414.4</v>
       </c>
       <c r="F7" s="5">
-        <v>8.2100000000000009</v>
+        <v>8.3320000000000007</v>
       </c>
       <c r="G7" s="6">
         <f>0.5*F7*1000+0.5*E7</f>
-        <v>6115.9</v>
+        <v>5873.2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4">
         <v>0.1</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E8" s="5">
-        <v>3372.6</v>
+        <v>3270.2</v>
       </c>
       <c r="F8" s="5">
-        <v>7.9640000000000004</v>
+        <v>8.4870000000000001</v>
       </c>
       <c r="G8" s="6">
         <f>0.5*F8*1000+0.5*E8</f>
-        <v>5668.3</v>
+        <v>5878.6</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
-        <v>3552</v>
+        <v>3498.6</v>
       </c>
       <c r="F9" s="5">
-        <v>8.3000000000000007</v>
+        <v>8.2929999999999993</v>
       </c>
       <c r="G9" s="6">
         <f>0.5*F9*1000+0.5*E9</f>
-        <v>5926</v>
+        <v>5895.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B10" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4">
         <v>0.1</v>
       </c>
       <c r="D10" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5">
-        <v>3468.8</v>
+        <v>3498.6</v>
       </c>
       <c r="F10" s="5">
-        <v>8.3800000000000008</v>
+        <v>8.2929999999999993</v>
       </c>
       <c r="G10" s="6">
         <f>0.5*F10*1000+0.5*E10</f>
-        <v>5924.4</v>
+        <v>5895.8</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5">
-        <v>3579.4</v>
+        <v>3468.8</v>
       </c>
       <c r="F11" s="5">
-        <v>7.9640000000000004</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="G11" s="6">
         <f>0.5*F11*1000+0.5*E11</f>
-        <v>5771.7</v>
+        <v>5924.4</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B12" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D12" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" s="5">
-        <v>3712</v>
+        <v>3287.2</v>
       </c>
       <c r="F12" s="5">
-        <v>8.3079999999999998</v>
+        <v>8.5630000000000006</v>
       </c>
       <c r="G12" s="6">
         <f>0.5*F12*1000+0.5*E12</f>
-        <v>6010</v>
+        <v>5925.1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D13" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5">
-        <v>3711</v>
+        <v>3552</v>
       </c>
       <c r="F13" s="5">
-        <v>8.4160000000000004</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G13" s="6">
         <f>0.5*F13*1000+0.5*E13</f>
-        <v>6063.5</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4">
         <v>50</v>
@@ -4178,22 +4178,22 @@
         <v>0.05</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E14" s="5">
-        <v>3631.6</v>
+        <v>3503</v>
       </c>
       <c r="F14" s="5">
-        <v>8.2919999999999998</v>
+        <v>8.3659999999999997</v>
       </c>
       <c r="G14" s="6">
         <f>0.5*F14*1000+0.5*E14</f>
-        <v>5961.8</v>
+        <v>5934.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>50</v>
@@ -4202,214 +4202,214 @@
         <v>0.05</v>
       </c>
       <c r="D15" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>3414.4</v>
+        <v>3631.6</v>
       </c>
       <c r="F15" s="5">
-        <v>8.3320000000000007</v>
+        <v>8.2919999999999998</v>
       </c>
       <c r="G15" s="6">
         <f>0.5*F15*1000+0.5*E15</f>
-        <v>5873.2</v>
+        <v>5961.8</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B16" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4">
         <v>0.05</v>
       </c>
       <c r="D16" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5">
-        <v>3503</v>
+        <v>3814.8</v>
       </c>
       <c r="F16" s="5">
-        <v>8.3659999999999997</v>
+        <v>8.202</v>
       </c>
       <c r="G16" s="6">
         <f>0.5*F16*1000+0.5*E16</f>
-        <v>5934.5</v>
+        <v>6008.4</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" s="4">
         <v>50</v>
       </c>
       <c r="C17" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" s="5">
-        <v>3294</v>
+        <v>3712</v>
       </c>
       <c r="F17" s="5">
-        <v>8.3109999999999999</v>
+        <v>8.3079999999999998</v>
       </c>
       <c r="G17" s="6">
         <f>0.5*F17*1000+0.5*E17</f>
-        <v>5802.5</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B18" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D18" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
-        <v>3270.2</v>
+        <v>3917</v>
       </c>
       <c r="F18" s="5">
-        <v>8.4870000000000001</v>
+        <v>8.173</v>
       </c>
       <c r="G18" s="6">
         <f>0.5*F18*1000+0.5*E18</f>
-        <v>5878.6</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4">
         <v>50</v>
       </c>
       <c r="C19" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
         <v>15</v>
       </c>
       <c r="E19" s="5">
-        <v>3819.8</v>
+        <v>3711</v>
       </c>
       <c r="F19" s="5">
-        <v>8.5980000000000008</v>
+        <v>8.4160000000000004</v>
       </c>
       <c r="G19" s="6">
         <f>0.5*F19*1000+0.5*E19</f>
-        <v>6208.9</v>
+        <v>6063.5</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B20" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D20" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E20" s="5">
-        <v>3498.6</v>
+        <v>4021.8</v>
       </c>
       <c r="F20" s="5">
-        <v>8.2929999999999993</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="G20" s="6">
         <f>0.5*F20*1000+0.5*E20</f>
-        <v>5895.8</v>
+        <v>6115.9</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4">
         <v>60</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="D21" s="4">
         <v>10</v>
       </c>
       <c r="E21" s="5">
-        <v>3812.4</v>
+        <v>3613.2</v>
       </c>
       <c r="F21" s="5">
-        <v>8.6180000000000003</v>
+        <v>8.7309999999999999</v>
       </c>
       <c r="G21" s="6">
         <f>0.5*F21*1000+0.5*E21</f>
-        <v>6215.2</v>
+        <v>6172.1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D22" s="4">
         <v>15</v>
       </c>
       <c r="E22" s="5">
-        <v>3963.6</v>
+        <v>3819.8</v>
       </c>
       <c r="F22" s="5">
-        <v>8.4879999999999995</v>
+        <v>8.5980000000000008</v>
       </c>
       <c r="G22" s="6">
         <f>0.5*F22*1000+0.5*E22</f>
-        <v>6225.8</v>
+        <v>6208.9</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C23" s="4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E23" s="5">
-        <v>3062</v>
+        <v>4109</v>
       </c>
       <c r="F23" s="5">
-        <v>8.1969999999999992</v>
+        <v>8.3089999999999993</v>
       </c>
       <c r="G23" s="6">
         <f>0.5*F23*1000+0.5*E23</f>
-        <v>5629.5</v>
+        <v>6209</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="4">
         <v>60</v>
@@ -4418,118 +4418,118 @@
         <v>0.05</v>
       </c>
       <c r="D24" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="5">
-        <v>3613.2</v>
+        <v>3676</v>
       </c>
       <c r="F24" s="5">
-        <v>8.7309999999999999</v>
+        <v>8.7460000000000004</v>
       </c>
       <c r="G24" s="6">
         <f>0.5*F24*1000+0.5*E24</f>
-        <v>6172.1</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4">
         <v>60</v>
       </c>
       <c r="C25" s="4">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D25" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E25" s="5">
-        <v>3676</v>
+        <v>3812.4</v>
       </c>
       <c r="F25" s="5">
-        <v>8.7460000000000004</v>
+        <v>8.6180000000000003</v>
       </c>
       <c r="G25" s="6">
         <f>0.5*F25*1000+0.5*E25</f>
-        <v>6211</v>
+        <v>6215.2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="4">
         <v>60</v>
       </c>
       <c r="C26" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E26" s="5">
-        <v>3498.6</v>
+        <v>3963.6</v>
       </c>
       <c r="F26" s="5">
-        <v>8.2929999999999993</v>
+        <v>8.4879999999999995</v>
       </c>
       <c r="G26" s="6">
         <f>0.5*F26*1000+0.5*E26</f>
-        <v>5895.8</v>
+        <v>6225.8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B27" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C27" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E27" s="5">
-        <v>3252.6</v>
+        <v>4447</v>
       </c>
       <c r="F27" s="5">
-        <v>8.4499999999999993</v>
+        <v>8.2739999999999991</v>
       </c>
       <c r="G27" s="6">
         <f>0.5*F27*1000+0.5*E27</f>
-        <v>5851.3</v>
+        <v>6360.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C28" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E28" s="5">
-        <v>3287.2</v>
+        <v>4600.2</v>
       </c>
       <c r="F28" s="5">
-        <v>8.5630000000000006</v>
+        <v>8.2590000000000003</v>
       </c>
       <c r="G28" s="6">
         <f>0.5*F28*1000+0.5*E28</f>
-        <v>5925.1</v>
+        <v>6429.6</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:G28">
-    <sortCondition ref="A2"/>
+    <sortCondition ref="G2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
